--- a/doc/剩余工作计划表.xlsx
+++ b/doc/剩余工作计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>前台ui调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,26 @@
   </si>
   <si>
     <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成（需要设计多套模版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端爆料完成，移动端未做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个粗略的文档查看器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,14 +164,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -167,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -216,6 +228,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -223,13 +246,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,29 +555,32 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -564,6 +588,9 @@
       </c>
       <c r="C2" s="1">
         <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -576,6 +603,9 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -587,6 +617,9 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -598,6 +631,9 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -609,6 +645,9 @@
       <c r="C6" s="1">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -620,6 +659,9 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -631,6 +673,9 @@
       <c r="C8" s="1">
         <v>30</v>
       </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -664,6 +709,9 @@
       <c r="C11" s="1">
         <v>12</v>
       </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -675,6 +723,9 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -686,6 +737,9 @@
       <c r="C13" s="1">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -719,8 +773,11 @@
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -730,8 +787,11 @@
       <c r="C17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -741,8 +801,11 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -751,6 +814,9 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
